--- a/Master-functional-testcases/TC_Template.xlsx
+++ b/Master-functional-testcases/TC_Template.xlsx
@@ -432,9 +432,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B300">
-      <formula1>"Admin, IDA, Partner Mgmt, Pre Registration,Registration Client, Registration Processor, Resident Services"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B300">
+      <formula1>"Admin, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D300">
       <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
@@ -442,9 +442,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G300">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Admin, IDA, Partner Mgmt,Pre Registration,Registration Client, Registration Processor, Resident Services"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Master-functional-testcases/TC_Template.xlsx
+++ b/Master-functional-testcases/TC_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,13 +108,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,9 +421,10 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,17 +446,23 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B300">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B232:B300">
       <formula1>"Admin, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D300">
       <formula1>"Acceptance, Functional, Smoke, Security, Performance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G300">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G300 H2:H272">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B231">
+      <formula1>"Admin, Credential Services, IDA, Partner Mgmt, Pre Registration, Registration Client, Registration Processor, Resident Services"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
